--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8074396078889018</v>
+        <v>0.7931583087512289</v>
       </c>
       <c r="C4">
-        <v>0.004016253993685104</v>
+        <v>0.004092764830269102</v>
       </c>
       <c r="D4">
-        <v>0.4211296984690225</v>
+        <v>0.4003334606440045</v>
       </c>
       <c r="E4">
-        <v>0.007807543998499089</v>
+        <v>0.008265524539824542</v>
       </c>
       <c r="F4">
-        <v>0.9360975609756099</v>
+        <v>0.9460000000000001</v>
       </c>
       <c r="G4">
-        <v>0.005044441597607419</v>
+        <v>0.005101329447455671</v>
       </c>
       <c r="H4">
-        <v>0.2730444610283335</v>
+        <v>0.2553001514958358</v>
       </c>
       <c r="I4">
-        <v>0.006893947406730494</v>
+        <v>0.007004186252311514</v>
       </c>
       <c r="J4">
-        <v>0.9766125289415659</v>
+        <v>0.9773723589844845</v>
       </c>
       <c r="K4">
-        <v>0.001534796431645002</v>
+        <v>0.001639883126928754</v>
       </c>
       <c r="L4">
-        <v>0.4980861244019138</v>
+        <v>0.4336725663716814</v>
       </c>
       <c r="M4">
-        <v>0.02022590578958883</v>
+        <v>0.02407160259521218</v>
       </c>
       <c r="N4">
-        <v>0.5699200000000001</v>
+        <v>0.5187453874538746</v>
       </c>
       <c r="O4">
-        <v>0.01615838579347695</v>
+        <v>0.0192958992174008</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.833282763449644</v>
+        <v>0.8271170108161258</v>
       </c>
       <c r="C5">
-        <v>0.003853151229370799</v>
+        <v>0.003858788553960379</v>
       </c>
       <c r="D5">
-        <v>0.4394002348728707</v>
+        <v>0.4167135919864002</v>
       </c>
       <c r="E5">
-        <v>0.008732173014810996</v>
+        <v>0.009827728230501986</v>
       </c>
       <c r="F5">
-        <v>0.9282926829268292</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G5">
-        <v>0.004394800847255409</v>
+        <v>0.004400231014700995</v>
       </c>
       <c r="H5">
-        <v>0.2894397045802735</v>
+        <v>0.269777938890477</v>
       </c>
       <c r="I5">
-        <v>0.007680497011233134</v>
+        <v>0.008509154909758954</v>
       </c>
       <c r="J5">
-        <v>0.9754326790871343</v>
+        <v>0.9755040396659322</v>
       </c>
       <c r="K5">
-        <v>0.001221960053501725</v>
+        <v>0.001184501877673716</v>
       </c>
       <c r="L5">
-        <v>0.5382775119617226</v>
+        <v>0.4743362831858407</v>
       </c>
       <c r="M5">
-        <v>0.02209287453580489</v>
+        <v>0.02516698674083356</v>
       </c>
       <c r="N5">
-        <v>0.60224</v>
+        <v>0.5513284132841328</v>
       </c>
       <c r="O5">
-        <v>0.0178261928847494</v>
+        <v>0.02030582565181138</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8520849673202616</v>
+        <v>0.8719897959183673</v>
       </c>
       <c r="C6">
-        <v>0.004945625680042531</v>
+        <v>0.00440718051771094</v>
       </c>
       <c r="D6">
-        <v>0.4896876533719524</v>
+        <v>0.5238457073355353</v>
       </c>
       <c r="E6">
-        <v>0.01108635345467479</v>
+        <v>0.009606090651425703</v>
       </c>
       <c r="F6">
-        <v>0.9423529411764706</v>
+        <v>0.9280000000000003</v>
       </c>
       <c r="G6">
-        <v>0.008123856138794849</v>
+        <v>0.0078916431199193</v>
       </c>
       <c r="H6">
-        <v>0.3344632592010022</v>
+        <v>0.3678947375125153</v>
       </c>
       <c r="I6">
-        <v>0.011256800971086</v>
+        <v>0.009963860944031344</v>
       </c>
       <c r="J6">
-        <v>0.9844256272556859</v>
+        <v>0.9795598648825701</v>
       </c>
       <c r="K6">
-        <v>0.002013592298003353</v>
+        <v>0.002168746548528722</v>
       </c>
       <c r="L6">
-        <v>0.6274444444444444</v>
+        <v>0.661734693877551</v>
       </c>
       <c r="M6">
-        <v>0.02109651880774921</v>
+        <v>0.01831731029118666</v>
       </c>
       <c r="N6">
-        <v>0.6774766355140186</v>
+        <v>0.7068644067796612</v>
       </c>
       <c r="O6">
-        <v>0.01664172688302579</v>
+        <v>0.01412569248083373</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8879150326797388</v>
+        <v>0.9027040816326529</v>
       </c>
       <c r="C7">
-        <v>0.005463888571426101</v>
+        <v>0.004677342215172797</v>
       </c>
       <c r="D7">
-        <v>0.572575738878252</v>
+        <v>0.6038773600304159</v>
       </c>
       <c r="E7">
-        <v>0.01653562984414114</v>
+        <v>0.01589552715787068</v>
       </c>
       <c r="F7">
-        <v>0.9058823529411765</v>
+        <v>0.9150000000000003</v>
       </c>
       <c r="G7">
-        <v>0.007956124174720802</v>
+        <v>0.00536958302109658</v>
       </c>
       <c r="H7">
-        <v>0.427358204021804</v>
+        <v>0.4582422708513949</v>
       </c>
       <c r="I7">
-        <v>0.01880847291140347</v>
+        <v>0.01899188708080518</v>
       </c>
       <c r="J7">
-        <v>0.9778110996853124</v>
+        <v>0.9780311265666315</v>
       </c>
       <c r="K7">
-        <v>0.001744825528077421</v>
+        <v>0.001240091119751874</v>
       </c>
       <c r="L7">
-        <v>0.7453333333333333</v>
+        <v>0.7602040816326533</v>
       </c>
       <c r="M7">
-        <v>0.02313074910756685</v>
+        <v>0.01814497437889862</v>
       </c>
       <c r="N7">
-        <v>0.770841121495327</v>
+        <v>0.7864406779661016</v>
       </c>
       <c r="O7">
-        <v>0.01836618113526556</v>
+        <v>0.01445527637046629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8244477987421385</v>
+        <v>0.8192731829573934</v>
       </c>
       <c r="C8">
-        <v>0.00487631924958265</v>
+        <v>0.004405267122689738</v>
       </c>
       <c r="D8">
-        <v>0.4449646002272331</v>
+        <v>0.4149583117231166</v>
       </c>
       <c r="E8">
-        <v>0.01468771095591659</v>
+        <v>0.01288878699530493</v>
       </c>
       <c r="F8">
-        <v>0.8928000000000001</v>
+        <v>0.9082142857142856</v>
       </c>
       <c r="G8">
-        <v>0.004351590430465291</v>
+        <v>0.005720408560265677</v>
       </c>
       <c r="H8">
-        <v>0.3007474790524953</v>
+        <v>0.2725713375036061</v>
       </c>
       <c r="I8">
-        <v>0.01314687616066951</v>
+        <v>0.01171422910550463</v>
       </c>
       <c r="J8">
-        <v>0.9744165528287791</v>
+        <v>0.9749957588913465</v>
       </c>
       <c r="K8">
-        <v>0.0004679501114012163</v>
+        <v>0.0008343600283390318</v>
       </c>
       <c r="L8">
-        <v>0.6444025157232705</v>
+        <v>0.5755555555555555</v>
       </c>
       <c r="M8">
-        <v>0.02662286554650595</v>
+        <v>0.0254271418274653</v>
       </c>
       <c r="N8">
-        <v>0.6781521739130433</v>
+        <v>0.6223618090452262</v>
       </c>
       <c r="O8">
-        <v>0.02246214855357276</v>
+        <v>0.02110991290578179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8693459119496856</v>
+        <v>0.8667543859649123</v>
       </c>
       <c r="C9">
-        <v>0.004265319158763936</v>
+        <v>0.004053699470749961</v>
       </c>
       <c r="D9">
-        <v>0.5012889582764791</v>
+        <v>0.4963394531463317</v>
       </c>
       <c r="E9">
-        <v>0.01136608350483734</v>
+        <v>0.01033823607397727</v>
       </c>
       <c r="F9">
-        <v>0.8796</v>
+        <v>0.8842857142857143</v>
       </c>
       <c r="G9">
-        <v>0.004144126385861036</v>
+        <v>0.006136666309824679</v>
       </c>
       <c r="H9">
-        <v>0.3539338870852513</v>
+        <v>0.3481845196415295</v>
       </c>
       <c r="I9">
-        <v>0.01163883132767396</v>
+        <v>0.01071468260221153</v>
       </c>
       <c r="J9">
-        <v>0.9750079055047348</v>
+        <v>0.974655579752025</v>
       </c>
       <c r="K9">
-        <v>0.0005698322876245276</v>
+        <v>0.001139991548110508</v>
       </c>
       <c r="L9">
-        <v>0.7347798742138365</v>
+        <v>0.7169590643274855</v>
       </c>
       <c r="M9">
-        <v>0.01572641924536311</v>
+        <v>0.01519025901354321</v>
       </c>
       <c r="N9">
-        <v>0.7544565217391305</v>
+        <v>0.7405025125628142</v>
       </c>
       <c r="O9">
-        <v>0.01313727913116847</v>
+        <v>0.0123382717496453</v>
       </c>
     </row>
   </sheetData>
